--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Angpt1-Tek.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Angpt1-Tek.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -77,6 +77,12 @@
   </si>
   <si>
     <t>FAPs</t>
+  </si>
+  <si>
+    <t>M2</t>
+  </si>
+  <si>
+    <t>Neutro</t>
   </si>
   <si>
     <t>sCs</t>
@@ -446,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>11.5229803079255</v>
+        <v>11.563232</v>
       </c>
       <c r="H2">
-        <v>11.5229803079255</v>
+        <v>34.689696</v>
       </c>
       <c r="I2">
-        <v>0.8189507990685472</v>
+        <v>0.6861949287396443</v>
       </c>
       <c r="J2">
-        <v>0.8189507990685472</v>
+        <v>0.6861949287396443</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>44.5761284212632</v>
+        <v>51.378359</v>
       </c>
       <c r="N2">
-        <v>44.5761284212632</v>
+        <v>154.135077</v>
       </c>
       <c r="O2">
-        <v>0.8867442745098747</v>
+        <v>0.8798212945621328</v>
       </c>
       <c r="P2">
-        <v>0.8867442745098747</v>
+        <v>0.879821294562133</v>
       </c>
       <c r="Q2">
-        <v>513.6498500017741</v>
+        <v>594.0998848962879</v>
       </c>
       <c r="R2">
-        <v>513.6498500017741</v>
+        <v>5346.898964066591</v>
       </c>
       <c r="S2">
-        <v>0.726199932179321</v>
+        <v>0.6037289105256842</v>
       </c>
       <c r="T2">
-        <v>0.726199932179321</v>
+        <v>0.6037289105256844</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>20</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>11.5229803079255</v>
+        <v>11.563232</v>
       </c>
       <c r="H3">
-        <v>11.5229803079255</v>
+        <v>34.689696</v>
       </c>
       <c r="I3">
-        <v>0.8189507990685472</v>
+        <v>0.6861949287396443</v>
       </c>
       <c r="J3">
-        <v>0.8189507990685472</v>
+        <v>0.6861949287396443</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>4.12635522984081</v>
+        <v>4.208408333333334</v>
       </c>
       <c r="N3">
-        <v>4.12635522984081</v>
+        <v>12.625225</v>
       </c>
       <c r="O3">
-        <v>0.08208478403678125</v>
+        <v>0.07206628121149999</v>
       </c>
       <c r="P3">
-        <v>0.08208478403678125</v>
+        <v>0.07206628121149999</v>
       </c>
       <c r="Q3">
-        <v>47.54791005696105</v>
+        <v>48.66280190906667</v>
       </c>
       <c r="R3">
-        <v>47.54791005696105</v>
+        <v>437.9652171816</v>
       </c>
       <c r="S3">
-        <v>0.06722339947829113</v>
+        <v>0.0494515167004564</v>
       </c>
       <c r="T3">
-        <v>0.06722339947829113</v>
+        <v>0.0494515167004564</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -643,123 +649,123 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" t="s">
         <v>22</v>
       </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" t="s">
-        <v>21</v>
-      </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>11.5229803079255</v>
+        <v>11.563232</v>
       </c>
       <c r="H4">
-        <v>11.5229803079255</v>
+        <v>34.689696</v>
       </c>
       <c r="I4">
-        <v>0.8189507990685472</v>
+        <v>0.6861949287396443</v>
       </c>
       <c r="J4">
-        <v>0.8189507990685472</v>
+        <v>0.6861949287396443</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>1.56694543080522</v>
+        <v>0.2415473333333333</v>
       </c>
       <c r="N4">
-        <v>1.56694543080522</v>
+        <v>0.724642</v>
       </c>
       <c r="O4">
-        <v>0.03117094145334398</v>
+        <v>0.004136342453276182</v>
       </c>
       <c r="P4">
-        <v>0.03117094145334398</v>
+        <v>0.004136342453276182</v>
       </c>
       <c r="Q4">
-        <v>18.05588134276239</v>
+        <v>2.793067854314666</v>
       </c>
       <c r="R4">
-        <v>18.05588134276239</v>
+        <v>25.137610688832</v>
       </c>
       <c r="S4">
-        <v>0.02552746741093496</v>
+        <v>0.002838337214968615</v>
       </c>
       <c r="T4">
-        <v>0.02552746741093496</v>
+        <v>0.002838337214968615</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="D5" t="s">
-        <v>24</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>2.54743798952464</v>
+        <v>11.563232</v>
       </c>
       <c r="H5">
-        <v>2.54743798952464</v>
+        <v>34.689696</v>
       </c>
       <c r="I5">
-        <v>0.1810492009314527</v>
+        <v>0.6861949287396443</v>
       </c>
       <c r="J5">
-        <v>0.1810492009314527</v>
+        <v>0.6861949287396443</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>44.5761284212632</v>
+        <v>2.568043</v>
       </c>
       <c r="N5">
-        <v>44.5761284212632</v>
+        <v>7.704129</v>
       </c>
       <c r="O5">
-        <v>0.8867442745098747</v>
+        <v>0.04397608177309095</v>
       </c>
       <c r="P5">
-        <v>0.8867442745098747</v>
+        <v>0.04397608177309095</v>
       </c>
       <c r="Q5">
-        <v>113.5549229662549</v>
+        <v>29.694876994976</v>
       </c>
       <c r="R5">
-        <v>113.5549229662549</v>
+        <v>267.253892954784</v>
       </c>
       <c r="S5">
-        <v>0.1605443423305536</v>
+        <v>0.03017616429853491</v>
       </c>
       <c r="T5">
-        <v>0.1605443423305536</v>
+        <v>0.03017616429853491</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -767,61 +773,61 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="E6">
         <v>1</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>2.54743798952464</v>
+        <v>0.005854666666666667</v>
       </c>
       <c r="H6">
-        <v>2.54743798952464</v>
+        <v>0.017564</v>
       </c>
       <c r="I6">
-        <v>0.1810492009314527</v>
+        <v>0.0003474324977763747</v>
       </c>
       <c r="J6">
-        <v>0.1810492009314527</v>
+        <v>0.0003474324977763746</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>4.12635522984081</v>
+        <v>51.378359</v>
       </c>
       <c r="N6">
-        <v>4.12635522984081</v>
+        <v>154.135077</v>
       </c>
       <c r="O6">
-        <v>0.08208478403678125</v>
+        <v>0.8798212945621328</v>
       </c>
       <c r="P6">
-        <v>0.08208478403678125</v>
+        <v>0.879821294562133</v>
       </c>
       <c r="Q6">
-        <v>10.51163407077016</v>
+        <v>0.3008031658253333</v>
       </c>
       <c r="R6">
-        <v>10.51163407077016</v>
+        <v>2.707228492428</v>
       </c>
       <c r="S6">
-        <v>0.01486138455849011</v>
+        <v>0.0003056785099665653</v>
       </c>
       <c r="T6">
-        <v>0.01486138455849011</v>
+        <v>0.0003056785099665653</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -829,61 +835,681 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G7">
+        <v>0.005854666666666667</v>
+      </c>
+      <c r="H7">
+        <v>0.017564</v>
+      </c>
+      <c r="I7">
+        <v>0.0003474324977763747</v>
+      </c>
+      <c r="J7">
+        <v>0.0003474324977763746</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>4.208408333333334</v>
+      </c>
+      <c r="N7">
+        <v>12.625225</v>
+      </c>
+      <c r="O7">
+        <v>0.07206628121149999</v>
+      </c>
+      <c r="P7">
+        <v>0.07206628121149999</v>
+      </c>
+      <c r="Q7">
+        <v>0.02463882798888889</v>
+      </c>
+      <c r="R7">
+        <v>0.2217494519</v>
+      </c>
+      <c r="S7">
+        <v>2.503816808676607E-05</v>
+      </c>
+      <c r="T7">
+        <v>2.503816808676606E-05</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
         <v>22</v>
       </c>
-      <c r="C7" t="s">
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G8">
+        <v>0.005854666666666667</v>
+      </c>
+      <c r="H8">
+        <v>0.017564</v>
+      </c>
+      <c r="I8">
+        <v>0.0003474324977763747</v>
+      </c>
+      <c r="J8">
+        <v>0.0003474324977763746</v>
+      </c>
+      <c r="K8">
+        <v>2</v>
+      </c>
+      <c r="L8">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M8">
+        <v>0.2415473333333333</v>
+      </c>
+      <c r="N8">
+        <v>0.724642</v>
+      </c>
+      <c r="O8">
+        <v>0.004136342453276182</v>
+      </c>
+      <c r="P8">
+        <v>0.004136342453276182</v>
+      </c>
+      <c r="Q8">
+        <v>0.001414179120888889</v>
+      </c>
+      <c r="R8">
+        <v>0.012727612088</v>
+      </c>
+      <c r="S8">
+        <v>1.437099790200201E-06</v>
+      </c>
+      <c r="T8">
+        <v>1.437099790200201E-06</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
         <v>23</v>
       </c>
-      <c r="D7" t="s">
-        <v>21</v>
-      </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>2.54743798952464</v>
-      </c>
-      <c r="H7">
-        <v>2.54743798952464</v>
-      </c>
-      <c r="I7">
-        <v>0.1810492009314527</v>
-      </c>
-      <c r="J7">
-        <v>0.1810492009314527</v>
-      </c>
-      <c r="K7">
-        <v>1</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>1.56694543080522</v>
-      </c>
-      <c r="N7">
-        <v>1.56694543080522</v>
-      </c>
-      <c r="O7">
-        <v>0.03117094145334398</v>
-      </c>
-      <c r="P7">
-        <v>0.03117094145334398</v>
-      </c>
-      <c r="Q7">
-        <v>3.99169631794527</v>
-      </c>
-      <c r="R7">
-        <v>3.99169631794527</v>
-      </c>
-      <c r="S7">
-        <v>0.005643474042409025</v>
-      </c>
-      <c r="T7">
-        <v>0.005643474042409025</v>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G9">
+        <v>0.005854666666666667</v>
+      </c>
+      <c r="H9">
+        <v>0.017564</v>
+      </c>
+      <c r="I9">
+        <v>0.0003474324977763747</v>
+      </c>
+      <c r="J9">
+        <v>0.0003474324977763746</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>2.568043</v>
+      </c>
+      <c r="N9">
+        <v>7.704129</v>
+      </c>
+      <c r="O9">
+        <v>0.04397608177309095</v>
+      </c>
+      <c r="P9">
+        <v>0.04397608177309095</v>
+      </c>
+      <c r="Q9">
+        <v>0.01503503575066667</v>
+      </c>
+      <c r="R9">
+        <v>0.135315321756</v>
+      </c>
+      <c r="S9">
+        <v>1.527871993284309E-05</v>
+      </c>
+      <c r="T9">
+        <v>1.527871993284309E-05</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G10">
+        <v>0.04835900000000001</v>
+      </c>
+      <c r="H10">
+        <v>0.145077</v>
+      </c>
+      <c r="I10">
+        <v>0.002869759990884942</v>
+      </c>
+      <c r="J10">
+        <v>0.002869759990884941</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>51.378359</v>
+      </c>
+      <c r="N10">
+        <v>154.135077</v>
+      </c>
+      <c r="O10">
+        <v>0.8798212945621328</v>
+      </c>
+      <c r="P10">
+        <v>0.879821294562133</v>
+      </c>
+      <c r="Q10">
+        <v>2.484606062881</v>
+      </c>
+      <c r="R10">
+        <v>22.361454565929</v>
+      </c>
+      <c r="S10">
+        <v>0.002524875950263004</v>
+      </c>
+      <c r="T10">
+        <v>0.002524875950263004</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G11">
+        <v>0.04835900000000001</v>
+      </c>
+      <c r="H11">
+        <v>0.145077</v>
+      </c>
+      <c r="I11">
+        <v>0.002869759990884942</v>
+      </c>
+      <c r="J11">
+        <v>0.002869759990884941</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>4.208408333333334</v>
+      </c>
+      <c r="N11">
+        <v>12.625225</v>
+      </c>
+      <c r="O11">
+        <v>0.07206628121149999</v>
+      </c>
+      <c r="P11">
+        <v>0.07206628121149999</v>
+      </c>
+      <c r="Q11">
+        <v>0.2035144185916667</v>
+      </c>
+      <c r="R11">
+        <v>1.831629767325</v>
+      </c>
+      <c r="S11">
+        <v>0.0002068129305126259</v>
+      </c>
+      <c r="T11">
+        <v>0.0002068129305126258</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G12">
+        <v>0.04835900000000001</v>
+      </c>
+      <c r="H12">
+        <v>0.145077</v>
+      </c>
+      <c r="I12">
+        <v>0.002869759990884942</v>
+      </c>
+      <c r="J12">
+        <v>0.002869759990884941</v>
+      </c>
+      <c r="K12">
+        <v>2</v>
+      </c>
+      <c r="L12">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M12">
+        <v>0.2415473333333333</v>
+      </c>
+      <c r="N12">
+        <v>0.724642</v>
+      </c>
+      <c r="O12">
+        <v>0.004136342453276182</v>
+      </c>
+      <c r="P12">
+        <v>0.004136342453276182</v>
+      </c>
+      <c r="Q12">
+        <v>0.01168098749266667</v>
+      </c>
+      <c r="R12">
+        <v>0.105128887434</v>
+      </c>
+      <c r="S12">
+        <v>1.187031008101085E-05</v>
+      </c>
+      <c r="T12">
+        <v>1.187031008101085E-05</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G13">
+        <v>0.04835900000000001</v>
+      </c>
+      <c r="H13">
+        <v>0.145077</v>
+      </c>
+      <c r="I13">
+        <v>0.002869759990884942</v>
+      </c>
+      <c r="J13">
+        <v>0.002869759990884941</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>2.568043</v>
+      </c>
+      <c r="N13">
+        <v>7.704129</v>
+      </c>
+      <c r="O13">
+        <v>0.04397608177309095</v>
+      </c>
+      <c r="P13">
+        <v>0.04397608177309095</v>
+      </c>
+      <c r="Q13">
+        <v>0.124187991437</v>
+      </c>
+      <c r="R13">
+        <v>1.117691922933</v>
+      </c>
+      <c r="S13">
+        <v>0.0001262008000283009</v>
+      </c>
+      <c r="T13">
+        <v>0.0001262008000283009</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>26</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>5.233789333333334</v>
+      </c>
+      <c r="H14">
+        <v>15.701368</v>
+      </c>
+      <c r="I14">
+        <v>0.3105878787716944</v>
+      </c>
+      <c r="J14">
+        <v>0.3105878787716944</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>51.378359</v>
+      </c>
+      <c r="N14">
+        <v>154.135077</v>
+      </c>
+      <c r="O14">
+        <v>0.8798212945621328</v>
+      </c>
+      <c r="P14">
+        <v>0.879821294562133</v>
+      </c>
+      <c r="Q14">
+        <v>268.9035072983707</v>
+      </c>
+      <c r="R14">
+        <v>2420.131565685336</v>
+      </c>
+      <c r="S14">
+        <v>0.2732618295762189</v>
+      </c>
+      <c r="T14">
+        <v>0.273261829576219</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>20</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>5.233789333333334</v>
+      </c>
+      <c r="H15">
+        <v>15.701368</v>
+      </c>
+      <c r="I15">
+        <v>0.3105878787716944</v>
+      </c>
+      <c r="J15">
+        <v>0.3105878787716944</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>4.208408333333334</v>
+      </c>
+      <c r="N15">
+        <v>12.625225</v>
+      </c>
+      <c r="O15">
+        <v>0.07206628121149999</v>
+      </c>
+      <c r="P15">
+        <v>0.07206628121149999</v>
+      </c>
+      <c r="Q15">
+        <v>22.02592264531112</v>
+      </c>
+      <c r="R15">
+        <v>198.2333038078</v>
+      </c>
+      <c r="S15">
+        <v>0.0223829134124442</v>
+      </c>
+      <c r="T15">
+        <v>0.0223829134124442</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>5.233789333333334</v>
+      </c>
+      <c r="H16">
+        <v>15.701368</v>
+      </c>
+      <c r="I16">
+        <v>0.3105878787716944</v>
+      </c>
+      <c r="J16">
+        <v>0.3105878787716944</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M16">
+        <v>0.2415473333333333</v>
+      </c>
+      <c r="N16">
+        <v>0.724642</v>
+      </c>
+      <c r="O16">
+        <v>0.004136342453276182</v>
+      </c>
+      <c r="P16">
+        <v>0.004136342453276182</v>
+      </c>
+      <c r="Q16">
+        <v>1.264207856695111</v>
+      </c>
+      <c r="R16">
+        <v>11.377870710256</v>
+      </c>
+      <c r="S16">
+        <v>0.001284697828436356</v>
+      </c>
+      <c r="T16">
+        <v>0.001284697828436356</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>5.233789333333334</v>
+      </c>
+      <c r="H17">
+        <v>15.701368</v>
+      </c>
+      <c r="I17">
+        <v>0.3105878787716944</v>
+      </c>
+      <c r="J17">
+        <v>0.3105878787716944</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>2.568043</v>
+      </c>
+      <c r="N17">
+        <v>7.704129</v>
+      </c>
+      <c r="O17">
+        <v>0.04397608177309095</v>
+      </c>
+      <c r="P17">
+        <v>0.04397608177309095</v>
+      </c>
+      <c r="Q17">
+        <v>13.44059606094133</v>
+      </c>
+      <c r="R17">
+        <v>120.965364548472</v>
+      </c>
+      <c r="S17">
+        <v>0.01365843795459489</v>
+      </c>
+      <c r="T17">
+        <v>0.01365843795459489</v>
       </c>
     </row>
   </sheetData>
